--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf7-Bmpr1a.xlsx
@@ -540,10 +540,10 @@
         <v>0.592741</v>
       </c>
       <c r="I2">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J2">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>1.959771467506333</v>
+        <v>0.2851159290526666</v>
       </c>
       <c r="R2">
-        <v>17.637943207557</v>
+        <v>2.566043361474</v>
       </c>
       <c r="S2">
-        <v>0.1026898856563324</v>
+        <v>0.01605954716853986</v>
       </c>
       <c r="T2">
-        <v>0.1026898856563324</v>
+        <v>0.01605954716853986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.592741</v>
       </c>
       <c r="I3">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J3">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>5.770040096484777</v>
+        <v>5.770040096484778</v>
       </c>
       <c r="R3">
-        <v>51.93036086836299</v>
+        <v>51.930360868363</v>
       </c>
       <c r="S3">
-        <v>0.3023438026140974</v>
+        <v>0.3250054509467503</v>
       </c>
       <c r="T3">
-        <v>0.3023438026140974</v>
+        <v>0.3250054509467503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.592741</v>
       </c>
       <c r="I4">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="J4">
-        <v>0.6387611885934001</v>
+        <v>0.5544143368907429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>4.460541399739</v>
+        <v>3.787734130941</v>
       </c>
       <c r="R4">
-        <v>40.144872597651</v>
+        <v>34.089607178469</v>
       </c>
       <c r="S4">
-        <v>0.2337275003229704</v>
+        <v>0.2133493387754528</v>
       </c>
       <c r="T4">
-        <v>0.2337275003229704</v>
+        <v>0.2133493387754528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H5">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I5">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J5">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>1.108310160655667</v>
+        <v>0.2291491432606667</v>
       </c>
       <c r="R5">
-        <v>9.974791445901001</v>
+        <v>2.062342289346</v>
       </c>
       <c r="S5">
-        <v>0.05807424261273667</v>
+        <v>0.01290714092001994</v>
       </c>
       <c r="T5">
-        <v>0.05807424261273667</v>
+        <v>0.01290714092001994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H6">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I6">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J6">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
-        <v>3.263132550073222</v>
+        <v>4.637410996580778</v>
       </c>
       <c r="R6">
-        <v>29.368192950659</v>
+        <v>41.73669896922701</v>
       </c>
       <c r="S6">
-        <v>0.1709845836641626</v>
+        <v>0.2612085578204839</v>
       </c>
       <c r="T6">
-        <v>0.1709845836641627</v>
+        <v>0.2612085578204839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1117376666666667</v>
+        <v>0.1587963333333333</v>
       </c>
       <c r="H7">
-        <v>0.335213</v>
+        <v>0.476389</v>
       </c>
       <c r="I7">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="J7">
-        <v>0.3612388114066</v>
+        <v>0.4455856631092571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>2.522571349427001</v>
+        <v>3.044221464189</v>
       </c>
       <c r="R7">
-        <v>22.70314214484301</v>
+        <v>27.397993177701</v>
       </c>
       <c r="S7">
-        <v>0.1321799851297006</v>
+        <v>0.1714699643687533</v>
       </c>
       <c r="T7">
-        <v>0.1321799851297006</v>
+        <v>0.1714699643687533</v>
       </c>
     </row>
   </sheetData>
